--- a/pa/PA5/PA5-Group106/test-cases.xlsx
+++ b/pa/PA5/PA5-Group106/test-cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\PA5-Group106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive - VNU-HCMUS\HCMUS\Nhập môn CNPM\RevUStG\RevUStG\pa\PA5\PA5-Group106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9BB6ED-73C6-45E7-9150-187C4EBDB309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404D4E0-2987-4BC9-B018-D01EA7F44681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -645,6 +645,9 @@
   <si>
     <t>1. Reload the page 
 2. An error message will be displayed at the top of the page</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1299,7 +1302,9 @@
       <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>138</v>
       </c>
@@ -1324,12 +1329,15 @@
       <c r="F4" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1348,7 +1356,9 @@
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>138</v>
       </c>
@@ -1373,13 +1383,15 @@
       <c r="F6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1410,9 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>138</v>
       </c>
@@ -1437,12 +1451,15 @@
       <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>139</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1478,9 @@
       <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H10" t="s">
         <v>139</v>
       </c>
@@ -1594,7 +1613,9 @@
       <c r="F15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>139</v>
       </c>
@@ -1633,6 +1654,9 @@
       <c r="F17" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>140</v>
       </c>
@@ -1654,7 +1678,12 @@
       <c r="E18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>140</v>
       </c>
@@ -1676,7 +1705,12 @@
       <c r="E19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H19" s="2" t="s">
         <v>140</v>
       </c>
@@ -1698,7 +1732,12 @@
       <c r="E20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>140</v>
       </c>
@@ -1720,7 +1759,12 @@
       <c r="E21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>140</v>
       </c>
@@ -1742,7 +1786,12 @@
       <c r="E22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>140</v>
       </c>
@@ -1764,7 +1813,12 @@
       <c r="E23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>140</v>
       </c>
@@ -1786,7 +1840,12 @@
       <c r="E24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>140</v>
       </c>
@@ -1825,6 +1884,9 @@
       <c r="F26" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>141</v>
       </c>
@@ -1849,6 +1911,9 @@
       <c r="F27" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H27" s="2" t="s">
         <v>141</v>
       </c>
@@ -1873,6 +1938,9 @@
       <c r="F28" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="H28" s="2" t="s">
         <v>141</v>
       </c>
@@ -1897,6 +1965,9 @@
       <c r="F29" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="G29" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H29" s="2" t="s">
         <v>141</v>
       </c>
@@ -1921,6 +1992,9 @@
       <c r="F30" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H30" s="2" t="s">
         <v>141</v>
       </c>
@@ -1945,6 +2019,9 @@
       <c r="F31" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H31" s="2" t="s">
         <v>141</v>
       </c>
@@ -1969,6 +2046,9 @@
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H32" s="2" t="s">
         <v>141</v>
       </c>
@@ -1992,6 +2072,9 @@
       </c>
       <c r="F33" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>141</v>
@@ -2031,6 +2114,9 @@
       <c r="F35" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H35" s="2" t="s">
         <v>142</v>
       </c>
@@ -2055,6 +2141,9 @@
       <c r="F36" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H36" s="2" t="s">
         <v>142</v>
       </c>
@@ -2078,6 +2167,9 @@
       </c>
       <c r="F37" s="2" t="s">
         <v>148</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>142</v>
@@ -2115,6 +2207,9 @@
         <v>110</v>
       </c>
       <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H39" s="2" t="s">
         <v>142</v>
       </c>
@@ -2137,6 +2232,9 @@
         <v>113</v>
       </c>
       <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H40" s="2" t="s">
         <v>142</v>
       </c>
@@ -2173,6 +2271,9 @@
         <v>118</v>
       </c>
       <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H42" s="2" t="s">
         <v>138</v>
       </c>
@@ -2195,6 +2296,9 @@
         <v>120</v>
       </c>
       <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H43" s="2" t="s">
         <v>138</v>
       </c>
